--- a/raw data/API_documents/40_API_documentations/data/filter_labeled_API/pinterest.xlsx
+++ b/raw data/API_documents/40_API_documentations/data/filter_labeled_API/pinterest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>class_name</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>getBoardPins</t>
-  </si>
-  <si>
-    <t>createBoard</t>
   </si>
   <si>
     <t>getPin</t>
@@ -482,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,16 +516,16 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -536,16 +533,16 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -553,16 +550,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -570,16 +567,16 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -587,16 +584,16 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -604,16 +601,16 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -621,16 +618,16 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,16 +635,16 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -655,16 +652,16 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -672,16 +669,16 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -689,33 +686,16 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
